--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCQA Goal Domains</t>
+    <t>PCO Goal Domains</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-goal-domains.xlsx
+++ b/CodeSystem-pco-goal-domains.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
